--- a/dual syringepump build and test/BOM dual syringe pump.xlsx
+++ b/dual syringepump build and test/BOM dual syringe pump.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twenzel/Documents/GitHub/OpenMicrofluidics/Minidrop build and test/Our aid documents and purchases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twenzel/Documents/GitHub/OpenMicrofluidics/dual syringepump build and test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A963B-0EDD-9449-8898-3EA1109E1C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCBFEF5-6AD1-0147-BE53-38B004277B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2480" windowWidth="20120" windowHeight="16740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12520" yWindow="3640" windowWidth="20720" windowHeight="16740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="278">
   <si>
     <r>
       <rPr>
@@ -2998,6 +2998,12 @@
   </si>
   <si>
     <t>$105.00</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
 </sst>
 </file>
@@ -3463,74 +3469,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4457,10 +4463,10 @@
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="22">
         <v>35</v>
       </c>
@@ -4482,10 +4488,10 @@
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="16">
         <v>9.89</v>
       </c>
@@ -4507,10 +4513,10 @@
       <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="16">
         <v>60</v>
       </c>
@@ -4534,10 +4540,10 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="7">
         <v>1.54</v>
       </c>
@@ -4558,10 +4564,10 @@
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="16">
         <v>18.5</v>
       </c>
@@ -4583,10 +4589,10 @@
       <c r="B8" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="7">
         <v>42</v>
       </c>
@@ -4607,10 +4613,10 @@
       <c r="B9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="70"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="7">
         <v>36.299999999999997</v>
       </c>
@@ -4631,10 +4637,10 @@
       <c r="B10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="57">
         <v>65</v>
       </c>
@@ -4655,10 +4661,10 @@
       <c r="B11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="79">
         <v>237825</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="16">
         <v>9.9499999999999993</v>
       </c>
@@ -4682,10 +4688,10 @@
       <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="59" t="s">
         <v>18</v>
       </c>
@@ -4709,10 +4715,10 @@
       <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="16">
         <v>25</v>
       </c>
@@ -4734,10 +4740,10 @@
       <c r="B14" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="77"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="27">
         <v>32.869999999999997</v>
       </c>
@@ -4759,10 +4765,10 @@
       <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="16">
         <v>10.68</v>
       </c>
@@ -4786,10 +4792,10 @@
       <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="59">
         <v>5.62</v>
       </c>
@@ -4813,10 +4819,10 @@
       <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="60">
         <v>0.56999999999999995</v>
       </c>
@@ -4838,10 +4844,10 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="59" t="s">
         <v>143</v>
       </c>
@@ -4865,10 +4871,10 @@
       <c r="B19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="16">
         <v>0.11</v>
       </c>
@@ -4892,10 +4898,10 @@
       <c r="B20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="27">
         <v>0.25</v>
       </c>
@@ -4917,10 +4923,10 @@
       <c r="B21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="27">
         <v>0.1</v>
       </c>
@@ -4942,10 +4948,10 @@
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="16">
         <v>1.25</v>
       </c>
@@ -4969,10 +4975,10 @@
       <c r="B23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="79">
         <v>856</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="59">
         <v>3.75</v>
       </c>
@@ -4996,10 +5002,10 @@
       <c r="B24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="16">
         <v>0.15</v>
       </c>
@@ -5023,10 +5029,10 @@
       <c r="B25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="79">
         <v>2222</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="16">
         <v>1</v>
       </c>
@@ -5050,10 +5056,10 @@
       <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="74"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="16">
         <v>0.09</v>
       </c>
@@ -5077,10 +5083,10 @@
       <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -5107,10 +5113,10 @@
       <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="70"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="7">
         <v>0.79</v>
       </c>
@@ -5137,10 +5143,10 @@
       <c r="B29" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="80">
         <v>1952370</v>
       </c>
-      <c r="D29" s="74"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="62">
         <v>18.95</v>
       </c>
@@ -5164,10 +5170,10 @@
       <c r="B30" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="68"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="46">
         <v>0.43</v>
       </c>
@@ -5189,10 +5195,10 @@
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="7">
         <v>1.28</v>
       </c>
@@ -5231,10 +5237,10 @@
       <c r="B33" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="59">
         <v>1.25</v>
       </c>
@@ -5258,17 +5264,17 @@
       <c r="B34" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="79">
         <v>2094346</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="81">
+      <c r="D34" s="79"/>
+      <c r="E34" s="67">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F34" s="17">
         <v>8</v>
       </c>
-      <c r="G34" s="81">
+      <c r="G34" s="67">
         <v>0.55200000000000005</v>
       </c>
       <c r="H34" s="62" t="s">
@@ -5285,17 +5291,17 @@
       <c r="B35" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="79">
         <v>106797</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="81">
+      <c r="D35" s="79"/>
+      <c r="E35" s="67">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F35" s="17">
         <v>4</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="67">
         <v>0.316</v>
       </c>
       <c r="H35" s="62" t="s">
@@ -5312,17 +5318,17 @@
       <c r="B36" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="86">
         <v>106810</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="81">
+      <c r="D36" s="86"/>
+      <c r="E36" s="67">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F36" s="17">
         <v>8</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="67">
         <v>0.63200000000000001</v>
       </c>
       <c r="H36" s="62" t="s">
@@ -5339,17 +5345,17 @@
       <c r="B37" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="79">
         <v>38173</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="81">
+      <c r="D37" s="79"/>
+      <c r="E37" s="67">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="F37" s="17">
         <v>4</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="67">
         <v>0.39600000000000002</v>
       </c>
       <c r="H37" s="62" t="s">
@@ -5366,17 +5372,17 @@
       <c r="B38" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="76">
         <v>51553</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="81">
+      <c r="D38" s="76"/>
+      <c r="E38" s="67">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F38" s="17">
         <v>4</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="67">
         <v>0.23599999999999999</v>
       </c>
       <c r="H38" s="62" t="s">
@@ -5393,17 +5399,17 @@
       <c r="B39" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="79">
         <v>40943</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="62">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F39" s="17">
         <v>4</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="67">
         <v>0.23599999999999999</v>
       </c>
       <c r="H39" s="62" t="s">
@@ -5420,17 +5426,17 @@
       <c r="B40" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="76">
         <v>38165</v>
       </c>
-      <c r="D40" s="74"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="62">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F40" s="17">
         <v>4</v>
       </c>
-      <c r="G40" s="81">
+      <c r="G40" s="67">
         <v>0.23599999999999999</v>
       </c>
       <c r="H40" s="62" t="s">
@@ -5444,20 +5450,20 @@
       <c r="A41" s="64">
         <v>37</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="82">
+      <c r="C41" s="86">
         <v>106850</v>
       </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="81">
+      <c r="D41" s="86"/>
+      <c r="E41" s="67">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F41" s="17">
         <v>2</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="67">
         <v>0.11799999999999999</v>
       </c>
       <c r="H41" s="62" t="s">
@@ -5468,16 +5474,16 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="84">
+      <c r="A42" s="69">
         <v>38</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="75">
+      <c r="C42" s="79">
         <v>106826</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="62">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -5501,10 +5507,10 @@
       <c r="B43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="70"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="7">
         <v>0.56000000000000005</v>
       </c>
@@ -5528,10 +5534,10 @@
       <c r="B44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="70"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="7">
         <v>0.61</v>
       </c>
@@ -5555,10 +5561,10 @@
       <c r="B45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="70"/>
+      <c r="D45" s="78"/>
       <c r="E45" s="7">
         <v>0.54</v>
       </c>
@@ -5582,10 +5588,10 @@
       <c r="B46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="70"/>
+      <c r="D46" s="78"/>
       <c r="E46" s="7">
         <v>0.27</v>
       </c>
@@ -5609,10 +5615,10 @@
       <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="70"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="11">
         <v>0.41799999999999998</v>
       </c>
@@ -5636,10 +5642,10 @@
       <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="70"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="11">
         <v>0.246</v>
       </c>
@@ -5663,10 +5669,10 @@
       <c r="B49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="70"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="11">
         <v>0.246</v>
       </c>
@@ -5690,10 +5696,10 @@
       <c r="B50" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="80">
         <v>2135064</v>
       </c>
-      <c r="D50" s="74"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="16">
         <v>2.4900000000000002</v>
       </c>
@@ -5717,10 +5723,10 @@
       <c r="B51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="70"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="61">
         <v>67</v>
       </c>
@@ -5741,10 +5747,10 @@
       <c r="B52" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="68"/>
+      <c r="D52" s="85"/>
       <c r="E52" s="46">
         <v>9.99</v>
       </c>
@@ -5766,10 +5772,10 @@
       <c r="B53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="70"/>
+      <c r="D53" s="78"/>
       <c r="E53" s="10"/>
       <c r="F53" s="6">
         <v>5</v>
@@ -5789,10 +5795,10 @@
       <c r="B54" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="68"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="45"/>
       <c r="F54" s="55">
         <v>5</v>
@@ -5810,10 +5816,10 @@
       <c r="B55" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="68"/>
+      <c r="D55" s="85"/>
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
@@ -5829,10 +5835,10 @@
       <c r="B56" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="68"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
       <c r="G56" s="45"/>
@@ -5848,51 +5854,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5901,6 +5862,51 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I31" r:id="rId1" xr:uid="{A02AF87C-9527-A047-9DFE-4A7472C1BB6D}"/>
@@ -5914,10 +5920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AA5E19-781C-F443-85D2-2EC68A637200}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5927,782 +5933,797 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="70" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="71" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="72">
         <v>4</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="72">
         <v>8</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="72">
         <v>16</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="72">
         <v>4</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="72">
         <v>8</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="72">
         <v>2</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="72">
         <v>12</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="72">
         <v>6</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="72">
         <v>4</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="72">
         <v>18</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="72">
         <v>2</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="72" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B14" s="72">
         <v>1247</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="72">
         <v>1</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="72" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:7" s="74" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A15" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="73">
         <v>2</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="73" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="72">
         <v>2</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="72" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A17" s="87" t="s">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A17" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="72">
         <v>2</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="87" t="s">
+      <c r="G17" s="72" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="87"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="86" t="s">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" s="71" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="87" t="s">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A20" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="87">
+      <c r="B20" s="72">
         <v>3055</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="72">
         <v>1</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G20" s="72" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A21" s="87" t="s">
+      <c r="I20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A21" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="B21" s="87">
+      <c r="B21" s="72">
         <v>1995</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="72">
         <v>1</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F21" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="72" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A22" s="87" t="s">
+      <c r="I21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A22" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="72">
         <v>1</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="72" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="87" t="s">
+      <c r="I22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="72">
         <v>1</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="E23" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="87" t="s">
+      <c r="F23" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="72" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A24" s="87" t="s">
+      <c r="I23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A24" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="72">
         <v>1</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A25" s="87" t="s">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A25" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="72">
         <v>1</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="72" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A26" s="87" t="s">
+      <c r="I25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A26" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="87">
+      <c r="B26" s="72">
         <v>327</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="72">
         <v>1</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A27" s="87" t="s">
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A27" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="72">
         <v>1</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="87" t="s">
+      <c r="F27" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="87" t="s">
+      <c r="G27" s="72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="87" t="s">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A28" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="72">
         <v>2</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="87" t="s">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A29" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="72">
         <v>2</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="G29" s="87" t="s">
+      <c r="G29" s="72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A30" s="87" t="s">
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A30" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="87">
+      <c r="C30" s="72">
         <v>2</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="72" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A31" s="87" t="s">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A31" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="87">
+      <c r="B31" s="72">
         <v>1468</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C31" s="72">
         <v>1</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="F31" s="87" t="s">
+      <c r="F31" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="87" t="s">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A32" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="72">
         <v>1</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="87" t="s">
+      <c r="E32" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="72" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="72">
         <v>1</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="72" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="72">
         <v>1</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="72" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A35" s="87"/>
+      <c r="A35" s="72"/>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="71" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="72">
         <v>1</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="72" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.15">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="72">
         <v>4</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="72" t="s">
         <v>200</v>
       </c>
     </row>
